--- a/src/assets/PTSPMerchantImportTemplate.xlsx
+++ b/src/assets/PTSPMerchantImportTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITEX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4426F79-3526-41AB-8ACB-38765A6F3712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="SubMerchantImportTemplate (2)" sheetId="1" r:id="rId1"/>
@@ -58,18 +57,18 @@
     <t>Timbet stores</t>
   </si>
   <si>
-    <t>account name must be same with account</t>
-  </si>
-  <si>
     <t>tid's should be seperated with a comma(e.g 1234567, 12344566, 12334455)</t>
+  </si>
+  <si>
+    <t>account name must be same with account and in uppercase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -555,13 +554,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -884,11 +884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,22 +948,22 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>999057</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1007040280</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1007040280</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{AEE10E8E-8A72-47A5-89C2-8D7F3A152639}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
